--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\academic_blog\content\BugDrug\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE666D-D0B8-46C6-8827-3B1C375F1DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C929508-5B57-41B4-842C-1076ED44A529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3690" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="3615" yWindow="3060" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="66">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -93,9 +93,6 @@
     <t>CRE</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>MSSA</t>
   </si>
   <si>
@@ -229,6 +226,15 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Steno</t>
+  </si>
+  <si>
+    <t>CRAB</t>
   </si>
 </sst>
 </file>
@@ -656,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20311A6D-E17B-449E-9F0C-463B7A3AA61D}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P13"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,195 +673,208 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,176 +883,181 @@
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="L6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,45 +1066,47 @@
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,11 +1116,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,9 +1128,9 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1121,927 +1147,989 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
+      <c r="K19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="L19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="1"/>
+      <c r="G26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="J27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="K27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\academic_blog\content\BugDrug\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C929508-5B57-41B4-842C-1076ED44A529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A42AB5E-BEB0-4BAA-9B91-87F843759DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="3060" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="66">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -1120,7 +1120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,9 +2080,7 @@
         <v>54</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="K27" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="4"/>
       <c r="M27" t="s">
         <v>51</v>
@@ -2114,9 +2112,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="5"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="5"/>
       <c r="M28" s="1" t="s">
         <v>54</v>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\academic_blog\content\BugDrug\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A42AB5E-BEB0-4BAA-9B91-87F843759DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3276D-1971-45BA-912D-E00291696184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26655" yWindow="4245" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="66">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -1119,8 +1119,8 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,9 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="I3" s="4" t="s">
         <v>54</v>
@@ -1250,7 +1252,9 @@
         <v>54</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1289,7 +1293,9 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="I5" s="4" t="s">
         <v>54</v>
@@ -1362,7 +1368,9 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="I7" s="4" t="s">
         <v>51</v>
@@ -1391,7 +1399,9 @@
         <v>54</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\academic_blog\content\BugDrug\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3276D-1971-45BA-912D-E00291696184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336A0F9-7500-466E-9B5B-84DF384AE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="4245" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26175" yWindow="3210" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="67">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>CRAB</t>
+  </si>
+  <si>
+    <t>DTR</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20311A6D-E17B-449E-9F0C-463B7A3AA61D}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -695,41 +698,44 @@
       <c r="G1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -747,31 +753,32 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -790,20 +797,20 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="4"/>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -817,27 +824,28 @@
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -859,22 +867,25 @@
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,29 +895,30 @@
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1"/>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -918,25 +930,25 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,29 +962,30 @@
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -986,28 +999,28 @@
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,25 +1032,26 @@
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1046,18 +1060,18 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,23 +1081,24 @@
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1095,18 +1110,18 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1143,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1153,38 +1168,41 @@
       <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1195,26 +1213,27 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1222,29 +1241,29 @@
         <v>53</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1261,32 +1280,33 @@
       <c r="H4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1297,29 +1317,29 @@
         <v>53</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -1336,32 +1356,33 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1372,26 +1393,26 @@
         <v>53</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1406,32 +1427,33 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1450,27 +1472,27 @@
       <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="J9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1491,28 +1513,29 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -1529,30 +1552,31 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1563,55 +1587,56 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -1622,30 +1647,31 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1667,22 +1693,25 @@
       <c r="H15" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1707,26 +1736,27 @@
       <c r="H16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1741,27 +1771,27 @@
       <c r="H17" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="Q17" t="s">
-        <v>51</v>
-      </c>
+      <c r="J17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="R17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1778,30 +1808,31 @@
       <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -1826,32 +1857,33 @@
       <c r="H19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1862,20 +1894,21 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1886,28 +1919,29 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1924,18 +1958,19 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1954,26 +1989,26 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1984,20 +2019,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2019,25 +2055,25 @@
       <c r="H25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="J25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2048,7 +2084,9 @@
       <c r="D26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="15" t="s">
         <v>54</v>
@@ -2056,26 +2094,27 @@
       <c r="H26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2089,17 +2128,17 @@
       <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="4"/>
-      <c r="M27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2120,22 +2159,23 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\academic_blog\content\BugDrug\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336A0F9-7500-466E-9B5B-84DF384AE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB75A7DA-56BD-4483-A1D4-DD6729194CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26175" yWindow="3210" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-27750" yWindow="2145" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="74">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -238,6 +238,27 @@
   </si>
   <si>
     <t>DTR</t>
+  </si>
+  <si>
+    <t>Vabomere</t>
+  </si>
+  <si>
+    <t>Recarbrio</t>
+  </si>
+  <si>
+    <t>Zerbaxa</t>
+  </si>
+  <si>
+    <t>Avycaz</t>
+  </si>
+  <si>
+    <t>Cefiderocol</t>
+  </si>
+  <si>
+    <t>Eravacycline</t>
+  </si>
+  <si>
+    <t>Xacduro</t>
   </si>
 </sst>
 </file>
@@ -334,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -351,6 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,16 +1153,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1211,7 +1233,9 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5" t="s">
@@ -1241,6 +1265,9 @@
         <v>53</v>
       </c>
       <c r="E3" s="4"/>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
@@ -1276,7 +1303,9 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H4" s="15" t="s">
         <v>62</v>
       </c>
@@ -1317,6 +1346,9 @@
         <v>53</v>
       </c>
       <c r="E5" s="4"/>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>54</v>
       </c>
@@ -1354,7 +1386,9 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="11" t="s">
@@ -1393,6 +1427,9 @@
         <v>53</v>
       </c>
       <c r="E7" s="4"/>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1462,9 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="5" t="s">
@@ -1472,6 +1511,9 @@
       <c r="F9" t="s">
         <v>53</v>
       </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1511,7 +1553,9 @@
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
@@ -1550,7 +1594,9 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="8" t="s">
@@ -1690,6 +1736,9 @@
       <c r="F15" t="s">
         <v>53</v>
       </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
       <c r="H15" t="s">
         <v>54</v>
       </c>
@@ -1806,7 +1855,7 @@
         <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="5" t="s">
@@ -1956,7 +2005,9 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="5"/>
@@ -1988,6 +2039,9 @@
       </c>
       <c r="F23" t="s">
         <v>54</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>62</v>
@@ -2088,8 +2142,8 @@
         <v>54</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="15" t="s">
-        <v>54</v>
+      <c r="G26" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>54</v>
@@ -2128,6 +2182,9 @@
       <c r="F27" t="s">
         <v>54</v>
       </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="L27" s="2"/>
       <c r="M27" s="4"/>
@@ -2139,43 +2196,174 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="G29" s="16"/>
+      <c r="J29" s="4"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="4"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="16"/>
+      <c r="J31" s="4"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="4"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="4"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="16"/>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="4"/>
+      <c r="O35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\academic_blog\content\BugDrug\files\CSV_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug_GH\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB75A7DA-56BD-4483-A1D4-DD6729194CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10952754-5C9B-405E-9A30-AD43F143505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27750" yWindow="2145" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-27060" yWindow="2835" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="74">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -372,7 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,8 +1155,8 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,9 +1593,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="8" t="s">
@@ -1746,14 +1743,14 @@
         <v>54</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s">
@@ -2040,7 +2037,7 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" t="s">
         <v>53</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -2237,19 +2234,18 @@
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
-      <c r="G29" s="16"/>
       <c r="J29" s="4"/>
       <c r="L29" s="2"/>
       <c r="M29" s="4"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="1"/>
@@ -2272,19 +2268,18 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
-      <c r="G31" s="16"/>
       <c r="J31" s="4"/>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="1"/>
@@ -2309,12 +2304,12 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
-      <c r="G33" s="16" t="s">
+      <c r="G33" t="s">
         <v>54</v>
       </c>
       <c r="H33" t="s">
@@ -2326,7 +2321,7 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="1"/>
@@ -2351,12 +2346,11 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="16"/>
       <c r="H35" t="s">
         <v>51</v>
       </c>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug_GH\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10952754-5C9B-405E-9A30-AD43F143505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D694A58C-9B90-4E6D-8373-C01195AF1B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="2835" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26955" yWindow="4515" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="73">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Cefiderocol</t>
-  </si>
-  <si>
-    <t>Eravacycline</t>
   </si>
   <si>
     <t>Xacduro</t>
@@ -274,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +287,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -372,6 +381,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,11 +1167,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,10 +2250,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="L29" s="2"/>
       <c r="M29" s="4"/>
@@ -2246,118 +2264,193 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="4"/>
-      <c r="O31" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="4"/>
-      <c r="O33" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="4"/>
-      <c r="O35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug_GH\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D694A58C-9B90-4E6D-8373-C01195AF1B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8608A8A8-A920-4E34-B37D-2FEFC905E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26955" yWindow="4515" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26175" yWindow="1935" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={461C3F77-B93B-476A-901B-96A779EB3D51}</author>
+    <author>tc={C9AF0AC1-7E5D-4988-8AB0-9FF99ABA8D8D}</author>
+    <author>tc={D7A92FDB-F6C0-46DE-A0B2-917B8F74BA6C}</author>
+    <author>tc={9A6BB642-A66C-4AA2-BCF5-9E37DD8F4C9C}</author>
+  </authors>
+  <commentList>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{461C3F77-B93B-476A-901B-96A779EB3D51}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Weak inducer, but good substrate</t>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="1" shapeId="0" xr:uid="{C9AF0AC1-7E5D-4988-8AB0-9FF99ABA8D8D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not cipro</t>
+      </text>
+    </comment>
+    <comment ref="M25" authorId="2" shapeId="0" xr:uid="{D7A92FDB-F6C0-46DE-A0B2-917B8F74BA6C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not cipro</t>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="3" shapeId="0" xr:uid="{9A6BB642-A66C-4AA2-BCF5-9E37DD8F4C9C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only Moxi</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="73">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -262,13 +307,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -364,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -377,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -387,12 +437,65 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB5D2ED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB5D2ED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB5D2ED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,6 +505,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hunter RATLIFF" id="{EC82A83F-FF00-4E0D-A42D-A704136440F7}" userId="0fd644c5419de148" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,12 +808,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D22" dT="2024-01-24T21:17:08.41" personId="{EC82A83F-FF00-4E0D-A42D-A704136440F7}" id="{461C3F77-B93B-476A-901B-96A779EB3D51}">
+    <text>Weak inducer, but good substrate</text>
+  </threadedComment>
+  <threadedComment ref="J25" dT="2024-01-24T21:28:53.18" personId="{EC82A83F-FF00-4E0D-A42D-A704136440F7}" id="{C9AF0AC1-7E5D-4988-8AB0-9FF99ABA8D8D}">
+    <text>Not cipro</text>
+  </threadedComment>
+  <threadedComment ref="M25" dT="2024-01-24T21:28:44.64" personId="{EC82A83F-FF00-4E0D-A42D-A704136440F7}" id="{D7A92FDB-F6C0-46DE-A0B2-917B8F74BA6C}">
+    <text>Not cipro</text>
+  </threadedComment>
+  <threadedComment ref="P25" dT="2024-01-24T21:23:37.93" personId="{EC82A83F-FF00-4E0D-A42D-A704136440F7}" id="{9A6BB642-A66C-4AA2-BCF5-9E37DD8F4C9C}">
+    <text>Only Moxi</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20311A6D-E17B-449E-9F0C-463B7A3AA61D}">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,18 +1286,29 @@
       <c r="O13" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:S13">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="com">
+      <formula>NOT(ISERROR(SEARCH("com",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="occ">
+      <formula>NOT(ISERROR(SEARCH("occ",B2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"unk"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,9 +1384,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5" t="s">
@@ -1279,9 +1414,6 @@
         <v>53</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
       <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
@@ -1311,16 +1443,16 @@
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="21" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="1"/>
@@ -1360,9 +1492,6 @@
         <v>53</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
       <c r="J5" s="4" t="s">
         <v>54</v>
       </c>
@@ -1398,11 +1527,11 @@
       <c r="D6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="11" t="s">
@@ -1441,9 +1570,6 @@
         <v>53</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
       <c r="J7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1476,9 +1602,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="5" t="s">
@@ -1522,12 +1646,6 @@
       <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
       <c r="J9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1564,14 +1682,12 @@
       <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1841,9 +1957,7 @@
       <c r="L17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="M17" s="22"/>
       <c r="O17" s="2"/>
       <c r="R17" t="s">
         <v>51</v>
@@ -1879,9 +1993,7 @@
       <c r="L18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="1"/>
       <c r="O18" s="3"/>
       <c r="P18" s="1"/>
@@ -1933,7 +2045,7 @@
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="Q19" s="6"/>
@@ -2012,10 +2124,12 @@
       <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="5"/>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
         <v>62</v>
@@ -2051,9 +2165,6 @@
       </c>
       <c r="F23" t="s">
         <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>62</v>
@@ -2106,30 +2217,30 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="12" t="s">
+      <c r="E25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="22" t="s">
         <v>54</v>
       </c>
       <c r="O25" s="2"/>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="21" t="s">
         <v>54</v>
       </c>
       <c r="Q25" t="s">
@@ -2157,7 +2268,7 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I26" s="1"/>
@@ -2305,154 +2416,155 @@
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
+      <c r="B31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
+      <c r="B32" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="B33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
+      <c r="B34" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/CSV_data/Data.xlsx
+++ b/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug_GH\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8608A8A8-A920-4E34-B37D-2FEFC905E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD1675-F749-4E15-8C00-D08137E20D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26175" yWindow="1935" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26385" yWindow="3345" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="73">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -307,19 +307,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -415,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -437,13 +431,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -465,27 +457,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB5D2ED"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1287,14 +1258,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:S13">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="com">
-      <formula>NOT(ISERROR(SEARCH("com",B2)))</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"unk"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="occ">
       <formula>NOT(ISERROR(SEARCH("occ",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"unk"</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="com">
+      <formula>NOT(ISERROR(SEARCH("com",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1307,8 +1278,8 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1423,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="21" t="s">
+      <c r="H4" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="1"/>
@@ -1945,9 +1916,6 @@
       <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
       <c r="J17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1957,7 +1925,7 @@
       <c r="L17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="22"/>
+      <c r="M17" s="4"/>
       <c r="O17" s="2"/>
       <c r="R17" t="s">
         <v>51</v>
@@ -2028,9 +1996,11 @@
         <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J19" s="8" t="s">
         <v>52</v>
       </c>
@@ -2217,30 +2187,30 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="O25" s="2"/>
-      <c r="P25" s="21" t="s">
+      <c r="P25" t="s">
         <v>54</v>
       </c>
       <c r="Q25" t="s">
@@ -2268,7 +2238,7 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" t="s">
         <v>54</v>
       </c>
       <c r="I26" s="1"/>
@@ -2406,7 +2376,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="3"/>
       <c r="P30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2444,7 +2414,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="16"/>
       <c r="P31" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
@@ -2482,7 +2452,9 @@
       <c r="M32" s="20"/>
       <c r="N32" s="18"/>
       <c r="O32" s="19"/>
-      <c r="P32" s="18"/>
+      <c r="P32" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
@@ -2519,7 +2491,9 @@
       <c r="M33" s="17"/>
       <c r="N33" s="15"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="15"/>
+      <c r="P33" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
@@ -2544,10 +2518,10 @@
         <v>51</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>51</v>
